--- a/Balkenplan.xlsx
+++ b/Balkenplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826B174-A515-4836-A7DC-03B86D1DC15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25DA60-DA46-4B8E-8729-2BC1B0968E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
   <si>
     <t>1.1</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>7 Tage</t>
+  </si>
+  <si>
+    <t>6 Tage</t>
+  </si>
+  <si>
+    <t>1  Tag</t>
+  </si>
+  <si>
+    <t>8 Tage</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d/mmmm;@"/>
+    <numFmt numFmtId="165" formatCode="d/mmmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -427,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -439,7 +448,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,15 +485,113 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -498,6 +605,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE6F1DF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -512,6 +626,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE6F1DF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -526,6 +661,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -533,7 +682,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -547,6 +696,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -554,21 +710,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,6 +730,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE6F1DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E26F4F-CB8D-4C73-AD72-62A80827E88D}">
   <dimension ref="A1:BN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,15 +1452,30 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="19">
         <v>44258</v>
       </c>
-      <c r="E10" s="15">
-        <v>44269</v>
-      </c>
+      <c r="E10" s="19">
+        <v>44272</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1442,13 +1604,13 @@
         <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15">
-        <v>44258</v>
+        <v>44272</v>
       </c>
       <c r="E18" s="15">
-        <v>44269</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,13 +1620,13 @@
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="15">
-        <v>44273</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="D19" s="19">
+        <v>44272</v>
+      </c>
+      <c r="E19" s="19">
         <v>44306</v>
       </c>
     </row>
@@ -1476,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D20" s="16">
         <v>44273</v>
@@ -1492,14 +1654,14 @@
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="15">
         <v>44277</v>
       </c>
-      <c r="E21" s="16">
-        <v>44287</v>
+      <c r="E21" s="15">
+        <v>44285</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,10 +1672,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D22" s="16">
-        <v>44288</v>
+        <v>44286</v>
       </c>
       <c r="E22" s="16">
         <v>44290</v>
@@ -1527,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D23" s="16">
         <v>44291</v>
@@ -1544,10 +1706,10 @@
         <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D24" s="15">
-        <v>44273</v>
+        <v>44298</v>
       </c>
       <c r="E24" s="15">
         <v>44306</v>
@@ -1560,13 +1722,13 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="19">
         <v>44307</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="19">
         <v>44314</v>
       </c>
     </row>
@@ -1629,10 +1791,10 @@
         <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D29" s="15">
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="E29" s="15">
         <v>44314</v>
@@ -1642,20 +1804,28 @@
       <c r="B34" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:BN29">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$G$1=$E$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(G$2&gt;=$D3,G$2&lt;=$E3)</formula>
+  <conditionalFormatting sqref="G3:BN9 G11:BN24 G26:BN29">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>AND($E3&gt;=G$2,$D3&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>($E$3=$B$34)</formula>
+  <conditionalFormatting sqref="G19:BN19">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>AND($E$19&gt;=G$2,$D$19&lt;=G$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:BN10">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($E$10&gt;=G$2,$D$10&lt;=G$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:BN25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($E$25&gt;=G$2,$D$25&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A3:A29" twoDigitTextYear="1"/>
   </ignoredErrors>
@@ -2407,12 +2577,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:BN29">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(G$2&gt;=$D3,G$2&lt;=$E3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$G$2=$E$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Balkenplan.xlsx
+++ b/Balkenplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25DA60-DA46-4B8E-8729-2BC1B0968E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30539DA-CFDC-457A-ADBF-025404BE1438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -496,11 +496,18 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -529,202 +536,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6F1DF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6F1DF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1046,12 +857,13 @@
   <dimension ref="A1:BN34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="66" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1805,22 +1617,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:BN9 G11:BN24 G26:BN29">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($E3&gt;=G$2,$D3&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:BN19">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND($E$19&gt;=G$2,$D$19&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:BN10">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND($E$10&gt;=G$2,$D$10&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:BN25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($E$25&gt;=G$2,$D$25&lt;=G$2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2577,12 +2389,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:BN29">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(G$2&gt;=$D3,G$2&lt;=$E3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G$2=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
